--- a/biology/Zoologie/Aphrissa_statira/Aphrissa_statira.xlsx
+++ b/biology/Zoologie/Aphrissa_statira/Aphrissa_statira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphrissa statira est un insecte lépidoptère de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Colias. Elle est l'espèce type pour le genre.
 </t>
@@ -511,26 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Aphrissa statira a été décrite par Cramer en 1777, sous le nom initial de Papilio statira[1] et reclassée par  Butler, en 1873 dans le genre Aphrissa [2].
-Synonymie
-Callidryas statira (Bates, 1861)[3]
-Phoebis (Aphrissa) statira (Brown &amp; Mielke, 1967) [4]
-Noms vernaculaires
-Aphrissa statira  se nomme  Statira Sulphur ou Statira en anglais.
-Taxinomie
-Il existe quatre Sous-espèces :
-Aphrissa statira statira au Mexique, au Guatemala, au Honduras, au Brésil, en Argentine et à la Martinique.
-Synonymie pour cette sous-espèce
-Papilio alcmeone (Cramer, 1777)[5]
-Colias evadne (Godart, 1819)[6]
-Callidryas jada (Butler, 1870)[7]
-Catopsilia statira pseudomas (Giacomelli, 1911)
-Aphrissa statira jada alba (Brown, 1931)
-Aphrissa statira cubana (d'Almeida, 1939) à Cuba[8].
-Aphrissa statira floridensis (Neumoegen, 1891) en Floride [9].
-Aphrissa statira hispaniolae (Munroe, 1947) en République dominicaine.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce Aphrissa statira a été décrite par Cramer en 1777, sous le nom initial de Papilio statira et reclassée par  Butler, en 1873 dans le genre Aphrissa .</t>
         </is>
       </c>
     </row>
@@ -555,16 +552,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce papillon est de couleur jaune avec une bande jaune plus clair en bordure des ailes sur le recto. Le verso est d'un jaune citron uniforme.
-La femelle présente une fine bordure noire et une tache noire à l'apex de ses antérieures[10].
-Chenille
-Elles sont de couleur variable[11].
-</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callidryas statira (Bates, 1861)
+Phoebis (Aphrissa) statira (Brown &amp; Mielke, 1967) </t>
         </is>
       </c>
     </row>
@@ -589,15 +589,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol
-Il semble voler toute l'année mais dans des lieux différents du fait de ses migrations.
-Plantes hôtes
-Les plantes hôtes de sa chenille sont diverses comme chez la plupart des papillons migrateurs : Entada gigas à la Jamaïque, Melicoccus bijugatus à Porto Rico, Dalbergia ecastaphyllum, Callichamys latifolia, Cassia, Dalbergia, Calliandra en Floride[12],[13].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aphrissa statira  se nomme  Statira Sulphur ou Statira en anglais.
 </t>
         </is>
       </c>
@@ -623,18 +626,28 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent au Mexique et en Floride, en Amérique centrale, au Guatemala, au Honduras, à Cuba, en Martinique, en République dominicaine, et en Amérique du Sud au Brésil et en Argentine.
-C'est un  migrateur régulier depuis l'Argentine jusqu'au sud du Texas et de la Floride[14].
-Biotope
-Il s'accommode de divers lieux, jardins, forêts, prairies.
-Protection
-Il n'a pas de statut de protection particulière.
-</t>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il existe quatre Sous-espèces :
+Aphrissa statira statira au Mexique, au Guatemala, au Honduras, au Brésil, en Argentine et à la Martinique.
+Synonymie pour cette sous-espèce
+Papilio alcmeone (Cramer, 1777)
+Colias evadne (Godart, 1819)
+Callidryas jada (Butler, 1870)
+Catopsilia statira pseudomas (Giacomelli, 1911)
+Aphrissa statira jada alba (Brown, 1931)
+Aphrissa statira cubana (d'Almeida, 1939) à Cuba.
+Aphrissa statira floridensis (Neumoegen, 1891) en Floride .
+Aphrissa statira hispaniolae (Munroe, 1947) en République dominicaine.</t>
         </is>
       </c>
     </row>
@@ -659,12 +672,267 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon est de couleur jaune avec une bande jaune plus clair en bordure des ailes sur le recto. Le verso est d'un jaune citron uniforme.
+La femelle présente une fine bordure noire et une tache noire à l'apex de ses antérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont de couleur variable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il semble voler toute l'année mais dans des lieux différents du fait de ses migrations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont diverses comme chez la plupart des papillons migrateurs : Entada gigas à la Jamaïque, Melicoccus bijugatus à Porto Rico, Dalbergia ecastaphyllum, Callichamys latifolia, Cassia, Dalbergia, Calliandra en Floride,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent au Mexique et en Floride, en Amérique centrale, au Guatemala, au Honduras, à Cuba, en Martinique, en République dominicaine, et en Amérique du Sud au Brésil et en Argentine.
+C'est un  migrateur régulier depuis l'Argentine jusqu'au sud du Texas et de la Floride.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'accommode de divers lieux, jardins, forêts, prairies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'a pas de statut de protection particulière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphrissa_statira</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Sujet d'étude</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été choisi pour tester l'existence d'une boussole interne chez les papillons migrateurs et il a été montré qu'au Panama un champ magnétique artificiel perturbe le vol d'Aphrissa statira[15].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été choisi pour tester l'existence d'une boussole interne chez les papillons migrateurs et il a été montré qu'au Panama un champ magnétique artificiel perturbe le vol d'Aphrissa statira.
 </t>
         </is>
       </c>
